--- a/assets/investor_data.xlsx
+++ b/assets/investor_data.xlsx
@@ -11579,9 +11579,7 @@
       <c r="S170" s="4"/>
     </row>
     <row r="171">
-      <c r="A171" s="5">
-        <v>229.0</v>
-      </c>
+      <c r="A171" s="5"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
@@ -11602,9 +11600,7 @@
       <c r="S171" s="4"/>
     </row>
     <row r="172">
-      <c r="A172" s="5">
-        <v>230.0</v>
-      </c>
+      <c r="A172" s="5"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
@@ -11625,9 +11621,7 @@
       <c r="S172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="5">
-        <v>231.0</v>
-      </c>
+      <c r="A173" s="5"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -11648,9 +11642,7 @@
       <c r="S173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="5">
-        <v>232.0</v>
-      </c>
+      <c r="A174" s="5"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
@@ -11671,9 +11663,7 @@
       <c r="S174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="5">
-        <v>233.0</v>
-      </c>
+      <c r="A175" s="5"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
@@ -11694,9 +11684,7 @@
       <c r="S175" s="4"/>
     </row>
     <row r="176">
-      <c r="A176" s="5">
-        <v>234.0</v>
-      </c>
+      <c r="A176" s="5"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
@@ -11717,9 +11705,7 @@
       <c r="S176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="5">
-        <v>235.0</v>
-      </c>
+      <c r="A177" s="5"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
@@ -11740,9 +11726,7 @@
       <c r="S177" s="4"/>
     </row>
     <row r="178">
-      <c r="A178" s="5">
-        <v>236.0</v>
-      </c>
+      <c r="A178" s="5"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
@@ -11763,9 +11747,7 @@
       <c r="S178" s="4"/>
     </row>
     <row r="179">
-      <c r="A179" s="5">
-        <v>237.0</v>
-      </c>
+      <c r="A179" s="5"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
@@ -11786,9 +11768,7 @@
       <c r="S179" s="4"/>
     </row>
     <row r="180">
-      <c r="A180" s="5">
-        <v>238.0</v>
-      </c>
+      <c r="A180" s="5"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
@@ -11809,9 +11789,7 @@
       <c r="S180" s="4"/>
     </row>
     <row r="181">
-      <c r="A181" s="5">
-        <v>239.0</v>
-      </c>
+      <c r="A181" s="5"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -11832,9 +11810,7 @@
       <c r="S181" s="4"/>
     </row>
     <row r="182">
-      <c r="A182" s="5">
-        <v>240.0</v>
-      </c>
+      <c r="A182" s="5"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -11855,9 +11831,7 @@
       <c r="S182" s="4"/>
     </row>
     <row r="183">
-      <c r="A183" s="5">
-        <v>241.0</v>
-      </c>
+      <c r="A183" s="5"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
@@ -11878,9 +11852,7 @@
       <c r="S183" s="4"/>
     </row>
     <row r="184">
-      <c r="A184" s="5">
-        <v>242.0</v>
-      </c>
+      <c r="A184" s="5"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
@@ -11901,9 +11873,7 @@
       <c r="S184" s="4"/>
     </row>
     <row r="185">
-      <c r="A185" s="5">
-        <v>243.0</v>
-      </c>
+      <c r="A185" s="5"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
@@ -11924,9 +11894,7 @@
       <c r="S185" s="4"/>
     </row>
     <row r="186">
-      <c r="A186" s="5">
-        <v>244.0</v>
-      </c>
+      <c r="A186" s="5"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
@@ -11947,9 +11915,7 @@
       <c r="S186" s="4"/>
     </row>
     <row r="187">
-      <c r="A187" s="5">
-        <v>245.0</v>
-      </c>
+      <c r="A187" s="5"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
@@ -11970,9 +11936,7 @@
       <c r="S187" s="4"/>
     </row>
     <row r="188">
-      <c r="A188" s="5">
-        <v>246.0</v>
-      </c>
+      <c r="A188" s="5"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -11993,9 +11957,7 @@
       <c r="S188" s="4"/>
     </row>
     <row r="189">
-      <c r="A189" s="5">
-        <v>247.0</v>
-      </c>
+      <c r="A189" s="5"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -12016,9 +11978,7 @@
       <c r="S189" s="4"/>
     </row>
     <row r="190">
-      <c r="A190" s="5">
-        <v>248.0</v>
-      </c>
+      <c r="A190" s="5"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
@@ -12039,9 +11999,7 @@
       <c r="S190" s="4"/>
     </row>
     <row r="191">
-      <c r="A191" s="5">
-        <v>249.0</v>
-      </c>
+      <c r="A191" s="5"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
@@ -12062,9 +12020,7 @@
       <c r="S191" s="4"/>
     </row>
     <row r="192">
-      <c r="A192" s="5">
-        <v>250.0</v>
-      </c>
+      <c r="A192" s="5"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
@@ -12085,9 +12041,7 @@
       <c r="S192" s="4"/>
     </row>
     <row r="193">
-      <c r="A193" s="5">
-        <v>251.0</v>
-      </c>
+      <c r="A193" s="5"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
@@ -12108,9 +12062,7 @@
       <c r="S193" s="4"/>
     </row>
     <row r="194">
-      <c r="A194" s="5">
-        <v>252.0</v>
-      </c>
+      <c r="A194" s="5"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
@@ -12131,9 +12083,7 @@
       <c r="S194" s="4"/>
     </row>
     <row r="195">
-      <c r="A195" s="5">
-        <v>253.0</v>
-      </c>
+      <c r="A195" s="5"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
@@ -12154,9 +12104,7 @@
       <c r="S195" s="4"/>
     </row>
     <row r="196">
-      <c r="A196" s="5">
-        <v>254.0</v>
-      </c>
+      <c r="A196" s="5"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
@@ -12177,9 +12125,7 @@
       <c r="S196" s="4"/>
     </row>
     <row r="197">
-      <c r="A197" s="5">
-        <v>255.0</v>
-      </c>
+      <c r="A197" s="5"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
@@ -12200,9 +12146,7 @@
       <c r="S197" s="4"/>
     </row>
     <row r="198">
-      <c r="A198" s="5">
-        <v>256.0</v>
-      </c>
+      <c r="A198" s="5"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
@@ -12223,9 +12167,7 @@
       <c r="S198" s="4"/>
     </row>
     <row r="199">
-      <c r="A199" s="5">
-        <v>257.0</v>
-      </c>
+      <c r="A199" s="5"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
@@ -12246,9 +12188,7 @@
       <c r="S199" s="4"/>
     </row>
     <row r="200">
-      <c r="A200" s="5">
-        <v>258.0</v>
-      </c>
+      <c r="A200" s="5"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
@@ -12269,9 +12209,7 @@
       <c r="S200" s="4"/>
     </row>
     <row r="201">
-      <c r="A201" s="5">
-        <v>259.0</v>
-      </c>
+      <c r="A201" s="5"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
@@ -12292,9 +12230,7 @@
       <c r="S201" s="4"/>
     </row>
     <row r="202">
-      <c r="A202" s="5">
-        <v>260.0</v>
-      </c>
+      <c r="A202" s="5"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
@@ -12315,9 +12251,7 @@
       <c r="S202" s="4"/>
     </row>
     <row r="203">
-      <c r="A203" s="5">
-        <v>261.0</v>
-      </c>
+      <c r="A203" s="5"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
@@ -12338,9 +12272,7 @@
       <c r="S203" s="4"/>
     </row>
     <row r="204">
-      <c r="A204" s="5">
-        <v>262.0</v>
-      </c>
+      <c r="A204" s="5"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
@@ -12361,9 +12293,7 @@
       <c r="S204" s="4"/>
     </row>
     <row r="205">
-      <c r="A205" s="5">
-        <v>263.0</v>
-      </c>
+      <c r="A205" s="5"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
@@ -12384,9 +12314,7 @@
       <c r="S205" s="4"/>
     </row>
     <row r="206">
-      <c r="A206" s="5">
-        <v>264.0</v>
-      </c>
+      <c r="A206" s="5"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
@@ -12407,9 +12335,7 @@
       <c r="S206" s="4"/>
     </row>
     <row r="207">
-      <c r="A207" s="5">
-        <v>265.0</v>
-      </c>
+      <c r="A207" s="5"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
@@ -12430,9 +12356,7 @@
       <c r="S207" s="4"/>
     </row>
     <row r="208">
-      <c r="A208" s="5">
-        <v>266.0</v>
-      </c>
+      <c r="A208" s="5"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -12453,9 +12377,7 @@
       <c r="S208" s="4"/>
     </row>
     <row r="209">
-      <c r="A209" s="5">
-        <v>267.0</v>
-      </c>
+      <c r="A209" s="5"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
@@ -12476,9 +12398,7 @@
       <c r="S209" s="4"/>
     </row>
     <row r="210">
-      <c r="A210" s="5">
-        <v>268.0</v>
-      </c>
+      <c r="A210" s="5"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
@@ -12499,9 +12419,7 @@
       <c r="S210" s="4"/>
     </row>
     <row r="211">
-      <c r="A211" s="5">
-        <v>269.0</v>
-      </c>
+      <c r="A211" s="5"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
@@ -12522,9 +12440,7 @@
       <c r="S211" s="4"/>
     </row>
     <row r="212">
-      <c r="A212" s="5">
-        <v>270.0</v>
-      </c>
+      <c r="A212" s="5"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
@@ -12545,9 +12461,7 @@
       <c r="S212" s="4"/>
     </row>
     <row r="213">
-      <c r="A213" s="5">
-        <v>271.0</v>
-      </c>
+      <c r="A213" s="5"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
@@ -12568,9 +12482,7 @@
       <c r="S213" s="4"/>
     </row>
     <row r="214">
-      <c r="A214" s="5">
-        <v>272.0</v>
-      </c>
+      <c r="A214" s="5"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
@@ -12591,9 +12503,7 @@
       <c r="S214" s="4"/>
     </row>
     <row r="215">
-      <c r="A215" s="5">
-        <v>273.0</v>
-      </c>
+      <c r="A215" s="5"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
@@ -12614,9 +12524,7 @@
       <c r="S215" s="4"/>
     </row>
     <row r="216">
-      <c r="A216" s="5">
-        <v>274.0</v>
-      </c>
+      <c r="A216" s="5"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
@@ -12637,9 +12545,7 @@
       <c r="S216" s="4"/>
     </row>
     <row r="217">
-      <c r="A217" s="5">
-        <v>275.0</v>
-      </c>
+      <c r="A217" s="5"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
@@ -12660,9 +12566,7 @@
       <c r="S217" s="4"/>
     </row>
     <row r="218">
-      <c r="A218" s="5">
-        <v>276.0</v>
-      </c>
+      <c r="A218" s="5"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
@@ -12683,9 +12587,7 @@
       <c r="S218" s="4"/>
     </row>
     <row r="219">
-      <c r="A219" s="5">
-        <v>277.0</v>
-      </c>
+      <c r="A219" s="5"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
@@ -12706,9 +12608,7 @@
       <c r="S219" s="4"/>
     </row>
     <row r="220">
-      <c r="A220" s="5">
-        <v>278.0</v>
-      </c>
+      <c r="A220" s="5"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
@@ -12729,9 +12629,7 @@
       <c r="S220" s="4"/>
     </row>
     <row r="221">
-      <c r="A221" s="5">
-        <v>279.0</v>
-      </c>
+      <c r="A221" s="5"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
@@ -12752,9 +12650,7 @@
       <c r="S221" s="4"/>
     </row>
     <row r="222">
-      <c r="A222" s="5">
-        <v>280.0</v>
-      </c>
+      <c r="A222" s="5"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
@@ -12775,9 +12671,7 @@
       <c r="S222" s="4"/>
     </row>
     <row r="223">
-      <c r="A223" s="5">
-        <v>281.0</v>
-      </c>
+      <c r="A223" s="5"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
@@ -12798,9 +12692,7 @@
       <c r="S223" s="4"/>
     </row>
     <row r="224">
-      <c r="A224" s="5">
-        <v>282.0</v>
-      </c>
+      <c r="A224" s="5"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
@@ -12821,9 +12713,7 @@
       <c r="S224" s="4"/>
     </row>
     <row r="225">
-      <c r="A225" s="5">
-        <v>283.0</v>
-      </c>
+      <c r="A225" s="5"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
@@ -12844,9 +12734,7 @@
       <c r="S225" s="4"/>
     </row>
     <row r="226">
-      <c r="A226" s="5">
-        <v>284.0</v>
-      </c>
+      <c r="A226" s="5"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
@@ -12867,9 +12755,7 @@
       <c r="S226" s="4"/>
     </row>
     <row r="227">
-      <c r="A227" s="5">
-        <v>285.0</v>
-      </c>
+      <c r="A227" s="5"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
@@ -12890,9 +12776,7 @@
       <c r="S227" s="4"/>
     </row>
     <row r="228">
-      <c r="A228" s="5">
-        <v>286.0</v>
-      </c>
+      <c r="A228" s="5"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
@@ -12913,9 +12797,7 @@
       <c r="S228" s="4"/>
     </row>
     <row r="229">
-      <c r="A229" s="5">
-        <v>287.0</v>
-      </c>
+      <c r="A229" s="5"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
@@ -12936,9 +12818,7 @@
       <c r="S229" s="4"/>
     </row>
     <row r="230">
-      <c r="A230" s="5">
-        <v>288.0</v>
-      </c>
+      <c r="A230" s="5"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
@@ -12959,9 +12839,7 @@
       <c r="S230" s="4"/>
     </row>
     <row r="231">
-      <c r="A231" s="5">
-        <v>289.0</v>
-      </c>
+      <c r="A231" s="5"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
@@ -12982,9 +12860,7 @@
       <c r="S231" s="4"/>
     </row>
     <row r="232">
-      <c r="A232" s="5">
-        <v>290.0</v>
-      </c>
+      <c r="A232" s="5"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
@@ -13005,9 +12881,7 @@
       <c r="S232" s="4"/>
     </row>
     <row r="233">
-      <c r="A233" s="5">
-        <v>291.0</v>
-      </c>
+      <c r="A233" s="5"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
@@ -13028,9 +12902,7 @@
       <c r="S233" s="4"/>
     </row>
     <row r="234">
-      <c r="A234" s="5">
-        <v>292.0</v>
-      </c>
+      <c r="A234" s="5"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
@@ -13051,9 +12923,7 @@
       <c r="S234" s="4"/>
     </row>
     <row r="235">
-      <c r="A235" s="5">
-        <v>293.0</v>
-      </c>
+      <c r="A235" s="5"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
@@ -13074,9 +12944,7 @@
       <c r="S235" s="4"/>
     </row>
     <row r="236">
-      <c r="A236" s="5">
-        <v>294.0</v>
-      </c>
+      <c r="A236" s="5"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
@@ -13097,9 +12965,7 @@
       <c r="S236" s="4"/>
     </row>
     <row r="237">
-      <c r="A237" s="5">
-        <v>295.0</v>
-      </c>
+      <c r="A237" s="5"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
@@ -13120,9 +12986,7 @@
       <c r="S237" s="4"/>
     </row>
     <row r="238">
-      <c r="A238" s="5">
-        <v>296.0</v>
-      </c>
+      <c r="A238" s="5"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
@@ -13143,9 +13007,7 @@
       <c r="S238" s="4"/>
     </row>
     <row r="239">
-      <c r="A239" s="5">
-        <v>297.0</v>
-      </c>
+      <c r="A239" s="5"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
@@ -13166,9 +13028,7 @@
       <c r="S239" s="4"/>
     </row>
     <row r="240">
-      <c r="A240" s="5">
-        <v>298.0</v>
-      </c>
+      <c r="A240" s="5"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
@@ -13189,9 +13049,7 @@
       <c r="S240" s="4"/>
     </row>
     <row r="241">
-      <c r="A241" s="5">
-        <v>299.0</v>
-      </c>
+      <c r="A241" s="5"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
@@ -13212,9 +13070,7 @@
       <c r="S241" s="4"/>
     </row>
     <row r="242">
-      <c r="A242" s="5">
-        <v>300.0</v>
-      </c>
+      <c r="A242" s="5"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
@@ -13235,9 +13091,7 @@
       <c r="S242" s="4"/>
     </row>
     <row r="243">
-      <c r="A243" s="5">
-        <v>301.0</v>
-      </c>
+      <c r="A243" s="5"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
@@ -13258,9 +13112,7 @@
       <c r="S243" s="4"/>
     </row>
     <row r="244">
-      <c r="A244" s="5">
-        <v>302.0</v>
-      </c>
+      <c r="A244" s="5"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
@@ -13281,9 +13133,7 @@
       <c r="S244" s="4"/>
     </row>
     <row r="245">
-      <c r="A245" s="5">
-        <v>303.0</v>
-      </c>
+      <c r="A245" s="5"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
@@ -13304,9 +13154,7 @@
       <c r="S245" s="4"/>
     </row>
     <row r="246">
-      <c r="A246" s="5">
-        <v>304.0</v>
-      </c>
+      <c r="A246" s="5"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
@@ -13327,9 +13175,7 @@
       <c r="S246" s="4"/>
     </row>
     <row r="247">
-      <c r="A247" s="5">
-        <v>305.0</v>
-      </c>
+      <c r="A247" s="5"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
@@ -13350,9 +13196,7 @@
       <c r="S247" s="4"/>
     </row>
     <row r="248">
-      <c r="A248" s="5">
-        <v>306.0</v>
-      </c>
+      <c r="A248" s="5"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
@@ -13373,9 +13217,7 @@
       <c r="S248" s="4"/>
     </row>
     <row r="249">
-      <c r="A249" s="5">
-        <v>307.0</v>
-      </c>
+      <c r="A249" s="5"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
@@ -13396,9 +13238,7 @@
       <c r="S249" s="4"/>
     </row>
     <row r="250">
-      <c r="A250" s="5">
-        <v>308.0</v>
-      </c>
+      <c r="A250" s="5"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
@@ -13419,9 +13259,7 @@
       <c r="S250" s="4"/>
     </row>
     <row r="251">
-      <c r="A251" s="5">
-        <v>309.0</v>
-      </c>
+      <c r="A251" s="5"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
@@ -13442,9 +13280,7 @@
       <c r="S251" s="4"/>
     </row>
     <row r="252">
-      <c r="A252" s="5">
-        <v>310.0</v>
-      </c>
+      <c r="A252" s="5"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
@@ -13465,9 +13301,7 @@
       <c r="S252" s="4"/>
     </row>
     <row r="253">
-      <c r="A253" s="5">
-        <v>311.0</v>
-      </c>
+      <c r="A253" s="5"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
@@ -13488,9 +13322,7 @@
       <c r="S253" s="4"/>
     </row>
     <row r="254">
-      <c r="A254" s="5">
-        <v>312.0</v>
-      </c>
+      <c r="A254" s="5"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
@@ -13511,9 +13343,7 @@
       <c r="S254" s="4"/>
     </row>
     <row r="255">
-      <c r="A255" s="5">
-        <v>313.0</v>
-      </c>
+      <c r="A255" s="5"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
@@ -13534,9 +13364,7 @@
       <c r="S255" s="4"/>
     </row>
     <row r="256">
-      <c r="A256" s="5">
-        <v>314.0</v>
-      </c>
+      <c r="A256" s="5"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
@@ -13557,9 +13385,7 @@
       <c r="S256" s="4"/>
     </row>
     <row r="257">
-      <c r="A257" s="5">
-        <v>315.0</v>
-      </c>
+      <c r="A257" s="5"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
@@ -13580,9 +13406,7 @@
       <c r="S257" s="4"/>
     </row>
     <row r="258">
-      <c r="A258" s="5">
-        <v>316.0</v>
-      </c>
+      <c r="A258" s="5"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
@@ -13603,9 +13427,7 @@
       <c r="S258" s="4"/>
     </row>
     <row r="259">
-      <c r="A259" s="5">
-        <v>317.0</v>
-      </c>
+      <c r="A259" s="5"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
@@ -13626,9 +13448,7 @@
       <c r="S259" s="4"/>
     </row>
     <row r="260">
-      <c r="A260" s="5">
-        <v>318.0</v>
-      </c>
+      <c r="A260" s="5"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
@@ -13649,9 +13469,7 @@
       <c r="S260" s="4"/>
     </row>
     <row r="261">
-      <c r="A261" s="5">
-        <v>319.0</v>
-      </c>
+      <c r="A261" s="5"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
